--- a/src/test/resources/Documents/25904/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/25904/Actual/JobMaterial.xlsx
@@ -71,27 +71,27 @@
     <t>Ink / Varnish</t>
   </si>
   <si>
+    <t>Pantone-1 - UV</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>UV-PMS - UV-PMS</t>
+  </si>
+  <si>
     <t>Black - UV</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>lbs</t>
-  </si>
-  <si>
     <t>UV-4 CP - UV- 4 Color Process</t>
   </si>
   <si>
-    <t>Pantone-1 - UV</t>
-  </si>
-  <si>
-    <t>0.14</t>
-  </si>
-  <si>
-    <t>UV-PMS - UV-PMS</t>
-  </si>
-  <si>
     <t>Print F (Varnish 1x0)</t>
   </si>
   <si>
@@ -107,6 +107,12 @@
     <t>Plate</t>
   </si>
   <si>
+    <t>Cyrel Plate</t>
+  </si>
+  <si>
+    <t>450 - ***40" Cyrel Plate for Press_________***</t>
+  </si>
+  <si>
     <t>Plate - Outer wrap  2p</t>
   </si>
   <si>
@@ -120,12 +126,6 @@
   </si>
   <si>
     <t>CTP40 - CTP Plate 40"</t>
-  </si>
-  <si>
-    <t>Cyrel Plate</t>
-  </si>
-  <si>
-    <t>450 - ***40" Cyrel Plate for Press_________***</t>
   </si>
   <si>
     <t>Sheet</t>
@@ -740,16 +740,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="35">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="36">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="37">
         <v>31</v>
       </c>
-      <c r="C6" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="37">
-        <v>33</v>
-      </c>
       <c r="E6" t="s" s="38">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="39">
         <v>15</v>
@@ -758,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="41">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -766,16 +766,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="43">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="44">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="45">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s" s="46">
         <v>36</v>
-      </c>
-      <c r="E7" t="s" s="46">
-        <v>14</v>
       </c>
       <c r="F7" t="s" s="47">
         <v>15</v>

--- a/src/test/resources/Documents/25904/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/25904/Actual/JobMaterial.xlsx
@@ -71,27 +71,27 @@
     <t>Ink / Varnish</t>
   </si>
   <si>
+    <t>Black - UV</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>UV-4 CP - UV- 4 Color Process</t>
+  </si>
+  <si>
     <t>Pantone-1 - UV</t>
   </si>
   <si>
     <t>0.14</t>
   </si>
   <si>
-    <t>lbs</t>
-  </si>
-  <si>
     <t>UV-PMS - UV-PMS</t>
   </si>
   <si>
-    <t>Black - UV</t>
-  </si>
-  <si>
-    <t>0.08</t>
-  </si>
-  <si>
-    <t>UV-4 CP - UV- 4 Color Process</t>
-  </si>
-  <si>
     <t>Print F (Varnish 1x0)</t>
   </si>
   <si>
@@ -107,30 +107,48 @@
     <t>Plate</t>
   </si>
   <si>
+    <t>Plate - Outer wrap  2p</t>
+  </si>
+  <si>
+    <t>Plate burn</t>
+  </si>
+  <si>
+    <t>CTP 40"</t>
+  </si>
+  <si>
+    <t>2.00</t>
+  </si>
+  <si>
+    <t>CTP40 - CTP Plate 40"</t>
+  </si>
+  <si>
     <t>Cyrel Plate</t>
   </si>
   <si>
     <t>450 - ***40" Cyrel Plate for Press_________***</t>
   </si>
   <si>
-    <t>Plate - Outer wrap  2p</t>
-  </si>
-  <si>
-    <t>Plate burn</t>
-  </si>
-  <si>
-    <t>CTP 40"</t>
-  </si>
-  <si>
-    <t>2.00</t>
-  </si>
-  <si>
-    <t>CTP40 - CTP Plate 40"</t>
-  </si>
-  <si>
     <t>Sheet</t>
   </si>
   <si>
+    <t>Liner  2p</t>
+  </si>
+  <si>
+    <t>Cut for Press</t>
+  </si>
+  <si>
+    <t>Special Order Coated Book Non FSC 100 24 x 36" 400 ppi</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>Sht.</t>
+  </si>
+  <si>
+    <t>429 - Offset Stock cost ea for Jobs Only-Use  for shipping too.</t>
+  </si>
+  <si>
     <t>Sterling Ultra C1S Gloss Verso Non FSC 80# 19 x 25" 500 ppi</t>
   </si>
   <si>
@@ -141,24 +159,6 @@
   </si>
   <si>
     <t>430 - Offset Stock Per 1000 cost for Jobs Only</t>
-  </si>
-  <si>
-    <t>Liner  2p</t>
-  </si>
-  <si>
-    <t>Cut for Press</t>
-  </si>
-  <si>
-    <t>Special Order Coated Book Non FSC 100 24 x 36" 400 ppi</t>
-  </si>
-  <si>
-    <t>150.00</t>
-  </si>
-  <si>
-    <t>Sht.</t>
-  </si>
-  <si>
-    <t>429 - Offset Stock cost ea for Jobs Only-Use  for shipping too.</t>
   </si>
 </sst>
 </file>
@@ -740,16 +740,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="35">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C6" t="s" s="36">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s" s="37">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s" s="38">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s" s="39">
         <v>15</v>
@@ -758,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="41">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7">
@@ -766,16 +766,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="43">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="44">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s" s="45">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E7" t="s" s="46">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="F7" t="s" s="47">
         <v>15</v>
@@ -792,25 +792,25 @@
         <v>38</v>
       </c>
       <c r="B8" t="s" s="51">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s" s="52">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s" s="53">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E8" t="s" s="54">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s" s="55">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G8" t="s" s="56">
         <v>16</v>
       </c>
       <c r="H8" t="s" s="57">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9">
@@ -818,10 +818,10 @@
         <v>38</v>
       </c>
       <c r="B9" t="s" s="59">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="C9" t="s" s="60">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D9" t="s" s="61">
         <v>45</v>

--- a/src/test/resources/Documents/25904/Actual/JobMaterial.xlsx
+++ b/src/test/resources/Documents/25904/Actual/JobMaterial.xlsx
@@ -71,15 +71,27 @@
     <t>Ink / Varnish</t>
   </si>
   <si>
+    <t>Print F (Varnish 1x0)</t>
+  </si>
+  <si>
+    <t>SGUV - Cyrel - (Post Finishing)</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>lbs</t>
+  </si>
+  <si>
+    <t>uv - UV coating</t>
+  </si>
+  <si>
     <t>Black - UV</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>lbs</t>
-  </si>
-  <si>
     <t>UV-4 CP - UV- 4 Color Process</t>
   </si>
   <si>
@@ -92,21 +104,15 @@
     <t>UV-PMS - UV-PMS</t>
   </si>
   <si>
-    <t>Print F (Varnish 1x0)</t>
-  </si>
-  <si>
-    <t>SGUV - Cyrel - (Post Finishing)</t>
-  </si>
-  <si>
-    <t>0.27</t>
-  </si>
-  <si>
-    <t>uv - UV coating</t>
-  </si>
-  <si>
     <t>Plate</t>
   </si>
   <si>
+    <t>Cyrel Plate</t>
+  </si>
+  <si>
+    <t>450 - ***40" Cyrel Plate for Press_________***</t>
+  </si>
+  <si>
     <t>Plate - Outer wrap  2p</t>
   </si>
   <si>
@@ -120,12 +126,6 @@
   </si>
   <si>
     <t>CTP40 - CTP Plate 40"</t>
-  </si>
-  <si>
-    <t>Cyrel Plate</t>
-  </si>
-  <si>
-    <t>450 - ***40" Cyrel Plate for Press_________***</t>
   </si>
   <si>
     <t>Sheet</t>
@@ -665,22 +665,22 @@
         <v>11</v>
       </c>
       <c r="C3" t="s" s="12">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s" s="13">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="15">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s" s="16">
         <v>16</v>
       </c>
       <c r="H3" t="s" s="17">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -694,19 +694,19 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s" s="22">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s" s="23">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s" s="24">
         <v>16</v>
       </c>
       <c r="H4" t="s" s="25">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
@@ -717,7 +717,7 @@
         <v>11</v>
       </c>
       <c r="C5" t="s" s="28">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s" s="29">
         <v>27</v>
@@ -726,7 +726,7 @@
         <v>28</v>
       </c>
       <c r="F5" t="s" s="31">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s" s="32">
         <v>16</v>
@@ -740,16 +740,16 @@
         <v>30</v>
       </c>
       <c r="B6" t="s" s="35">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="36">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s" s="37">
         <v>31</v>
       </c>
-      <c r="C6" t="s" s="36">
-        <v>32</v>
-      </c>
-      <c r="D6" t="s" s="37">
-        <v>33</v>
-      </c>
       <c r="E6" t="s" s="38">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="39">
         <v>15</v>
@@ -758,7 +758,7 @@
         <v>16</v>
       </c>
       <c r="H6" t="s" s="41">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7">
@@ -766,16 +766,16 @@
         <v>30</v>
       </c>
       <c r="B7" t="s" s="43">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C7" t="s" s="44">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s" s="45">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s" s="46">
         <v>36</v>
-      </c>
-      <c r="E7" t="s" s="46">
-        <v>14</v>
       </c>
       <c r="F7" t="s" s="47">
         <v>15</v>
